--- a/ConceptMap-R5-Meta-elements-for-R4-Meta.xlsx
+++ b/ConceptMap-R5-Meta-elements-for-R4-Meta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.5613882-06:00</t>
+    <t>2026-02-09T22:05:44.0534478-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Meta#Meta.source</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Meta.source</t>
   </si>
   <si>
     <t>Meta.profile</t>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,55 +514,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Meta-elements-for-R4-Meta.xlsx
+++ b/ConceptMap-R5-Meta-elements-for-R4-Meta.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.0534478-06:00</t>
+    <t>2026-02-17T14:42:27.3987701-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
